--- a/Lucros 2022/Novembro - Livro Caixa.xlsx
+++ b/Lucros 2022/Novembro - Livro Caixa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Planilhas Chaveiro\Planilhas\Lucros 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Planilhas\Lucros 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3404A88F-963F-4684-84E2-77D3AC7042FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C520D-2CF4-4AC9-AD3F-E29A0F69DDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="330">
   <si>
     <t>Valor Bruto</t>
   </si>
@@ -1029,6 +1029,9 @@
   </si>
   <si>
     <t>Troca de pilha/Din</t>
+  </si>
+  <si>
+    <t>PD 6852</t>
   </si>
 </sst>
 </file>
@@ -1351,6 +1354,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,7 +1369,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,12 +1380,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8827,19 +8830,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="34" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -9381,10 +9384,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="34"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -9414,14 +9417,14 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -9942,10 +9945,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="34"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
@@ -9975,14 +9978,14 @@
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -10503,10 +10506,10 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="33"/>
+      <c r="C91" s="34"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
@@ -10536,14 +10539,14 @@
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="33"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
@@ -11066,10 +11069,10 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="33"/>
+      <c r="C124" s="34"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
@@ -11105,14 +11108,14 @@
       <c r="G129"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="33"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
@@ -11613,10 +11616,10 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="33"/>
+      <c r="C156" s="34"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
@@ -11652,14 +11655,14 @@
       <c r="G160"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="33"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
@@ -12180,10 +12183,10 @@
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="33" t="s">
+      <c r="B187" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="33"/>
+      <c r="C187" s="34"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
@@ -12219,14 +12222,14 @@
       <c r="G191"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="33"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="14" t="s">
@@ -12747,10 +12750,10 @@
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="33" t="s">
+      <c r="B218" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C218" s="33"/>
+      <c r="C218" s="34"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="12" t="s">
@@ -12860,6 +12863,12 @@
     <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B187:C187"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B60:C60"/>
@@ -12869,12 +12878,6 @@
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B187:C187"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12914,19 +12917,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="34" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -13474,10 +13477,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -13529,14 +13532,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -14057,10 +14060,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -14112,14 +14115,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -14599,10 +14602,10 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="33"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -14666,14 +14669,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="33"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
@@ -15198,10 +15201,10 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="33"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -15253,14 +15256,14 @@
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="33"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
@@ -15781,10 +15784,10 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="33"/>
+      <c r="C154" s="34"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -15836,14 +15839,14 @@
       <c r="G158" s="2"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="33"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
@@ -16364,10 +16367,10 @@
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="33"/>
+      <c r="C185" s="34"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -16414,12 +16417,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B185:C185"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B96:G96"/>
@@ -16427,6 +16424,12 @@
     <mergeCell ref="B128:G128"/>
     <mergeCell ref="B154:C154"/>
     <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16465,19 +16468,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="34" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -17026,10 +17029,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -17081,14 +17084,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -17609,10 +17612,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -17664,14 +17667,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -18186,10 +18189,10 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="33"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -18241,14 +18244,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="33"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
@@ -18769,10 +18772,10 @@
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="33"/>
+      <c r="C122" s="34"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -18824,14 +18827,14 @@
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="33"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
@@ -19353,10 +19356,10 @@
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="33"/>
+      <c r="C153" s="34"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -19408,14 +19411,14 @@
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="33"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
@@ -19938,10 +19941,10 @@
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="33" t="s">
+      <c r="B184" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="33"/>
+      <c r="C184" s="34"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -19988,12 +19991,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B184:C184"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B96:G96"/>
@@ -20001,6 +19998,12 @@
     <mergeCell ref="B127:G127"/>
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20039,19 +20042,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="34" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -20613,10 +20616,10 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -20668,14 +20671,14 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
@@ -21186,10 +21189,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="33"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -21241,14 +21244,14 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="30">
+      <c r="B66" s="31">
         <v>44888</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
@@ -21769,10 +21772,10 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="33"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -21836,14 +21839,14 @@
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="33"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
@@ -22365,10 +22368,10 @@
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="33"/>
+      <c r="C125" s="34"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -22420,14 +22423,14 @@
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="33"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
@@ -22949,10 +22952,10 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="33"/>
+      <c r="C156" s="34"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -23004,14 +23007,14 @@
       <c r="G160" s="2"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="33"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
@@ -23530,10 +23533,10 @@
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="33" t="s">
+      <c r="B187" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="33"/>
+      <c r="C187" s="34"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -23580,12 +23583,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B187:C187"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B99:G99"/>
@@ -23593,6 +23590,12 @@
     <mergeCell ref="B130:G130"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23611,8 +23614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23621,7 +23624,7 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" customWidth="1"/>
@@ -23630,19 +23633,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -23695,15 +23698,15 @@
       </c>
       <c r="I4" s="11">
         <f>SUM(C30,C62,C93,C124,C155,C182)</f>
-        <v>1165</v>
+        <v>1209</v>
       </c>
       <c r="J4" s="11">
         <f>SUM(C94,C63,C31,C125,C156,C183)</f>
-        <v>233.2</v>
+        <v>253.99999999999997</v>
       </c>
       <c r="K4" s="22">
         <f>SUM(C32,C64,C95,C126,C157,C184)</f>
-        <v>931.8</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -24210,10 +24213,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="36"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -24265,14 +24268,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -24341,7 +24344,7 @@
         <v>108</v>
       </c>
       <c r="C38" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>70</v>
@@ -24354,7 +24357,7 @@
       </c>
       <c r="G38" s="6">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -24401,50 +24404,48 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C41" s="5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C42" s="5">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="5">
         <v>0</v>
       </c>
@@ -24814,10 +24815,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="33"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -24829,7 +24830,7 @@
       </c>
       <c r="C62" s="24">
         <f>SUM(B35:B60)</f>
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -24842,7 +24843,7 @@
       </c>
       <c r="C63" s="24">
         <f>SUM(C35:C60)</f>
-        <v>50.800000000000004</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -24855,7 +24856,7 @@
       </c>
       <c r="C64" s="12">
         <f>SUM(C62-C63)</f>
-        <v>359.2</v>
+        <v>382.4</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -24863,14 +24864,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
@@ -25391,10 +25392,10 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="33"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -25440,14 +25441,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="33"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
@@ -25968,10 +25969,10 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="33"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -26014,14 +26015,14 @@
     </row>
     <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="38"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="36"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
@@ -26542,10 +26543,10 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="35" t="s">
+      <c r="B154" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="36"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -26591,14 +26592,14 @@
       <c r="G157" s="2"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="38"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="36"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
@@ -26846,10 +26847,10 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="35" t="s">
+      <c r="B181" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="36"/>
+      <c r="C181" s="38"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -26896,12 +26897,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B123:C123"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:G34"/>
@@ -26909,6 +26904,12 @@
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B123:C123"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27019,7 +27020,7 @@
       </c>
       <c r="K3" s="18">
         <f>SUM('Semana 1'!I4,'Semana 2'!I4,'Semana 3'!I4,'Semana 4'!I4,'Semena 5'!I4)</f>
-        <v>14459</v>
+        <v>14503</v>
       </c>
       <c r="L3" s="18">
         <f>SUM(B3:I19)</f>
@@ -27027,15 +27028,15 @@
       </c>
       <c r="M3" s="18">
         <f>SUM('Semana 1'!K4,'Semana 3'!K4,'Semana 2'!K4,'Semena 5'!K4,'Semana 4'!K4)</f>
-        <v>11317.83</v>
+        <v>11341.03</v>
       </c>
       <c r="N3" s="18">
         <f>SUM(B3:I6,'Semena 5'!J4,'Semana 4'!J4,'Semana 3'!J4,'Semana 2'!J4,'Semana 1'!J4)</f>
-        <v>7441.03</v>
+        <v>7461.83</v>
       </c>
       <c r="P3" s="18">
         <f>SUM(M3-L3)</f>
-        <v>3255.8400000000011</v>
+        <v>3279.0400000000018</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">

--- a/Lucros 2022/Novembro - Livro Caixa.xlsx
+++ b/Lucros 2022/Novembro - Livro Caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Planilhas\Lucros 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C520D-2CF4-4AC9-AD3F-E29A0F69DDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C8D1E-D119-4739-907C-93E21F4BD7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="333">
   <si>
     <t>Valor Bruto</t>
   </si>
@@ -1013,9 +1013,6 @@
     <t>29/11/2022 Chaveiro Agua Verde</t>
   </si>
   <si>
-    <t>Troca de miolo (p. correr)/</t>
-  </si>
-  <si>
     <t>ST 846;856</t>
   </si>
   <si>
@@ -1032,6 +1029,18 @@
   </si>
   <si>
     <t>PD 6852</t>
+  </si>
+  <si>
+    <t>St 1030 / Pd 682 / Br 512</t>
+  </si>
+  <si>
+    <t>Cópia de chaves;Controle OhPro;Miolo Papaiz/cred</t>
+  </si>
+  <si>
+    <t>Troca de Pilha/deb</t>
+  </si>
+  <si>
+    <t>Troca de miolo (p. correr)/pix</t>
   </si>
 </sst>
 </file>
@@ -1354,9 +1363,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,10 +1375,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,6 +1383,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8830,19 +8839,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -9384,10 +9393,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -9417,14 +9426,14 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -9945,10 +9954,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="33"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
@@ -9978,14 +9987,14 @@
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -10506,10 +10515,10 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="34"/>
+      <c r="C91" s="33"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
@@ -10539,14 +10548,14 @@
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="33"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="32"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
@@ -11069,10 +11078,10 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="34"/>
+      <c r="C124" s="33"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
@@ -11108,14 +11117,14 @@
       <c r="G129"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="33"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="32"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
@@ -11616,10 +11625,10 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="34"/>
+      <c r="C156" s="33"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
@@ -11655,14 +11664,14 @@
       <c r="G160"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="33"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="32"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
@@ -12183,10 +12192,10 @@
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="34"/>
+      <c r="C187" s="33"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
@@ -12222,14 +12231,14 @@
       <c r="G191"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="31" t="s">
+      <c r="B192" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="33"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="32"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="14" t="s">
@@ -12750,10 +12759,10 @@
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C218" s="34"/>
+      <c r="C218" s="33"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="12" t="s">
@@ -12863,12 +12872,6 @@
     <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B187:C187"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B60:C60"/>
@@ -12878,6 +12881,12 @@
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B187:C187"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12917,19 +12926,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -13477,10 +13486,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -13532,14 +13541,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -14060,10 +14069,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -14115,14 +14124,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -14602,10 +14611,10 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="34"/>
+      <c r="C89" s="33"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -14669,14 +14678,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="33"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
@@ -15201,10 +15210,10 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="34"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -15256,14 +15265,14 @@
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="33"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="32"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
@@ -15784,10 +15793,10 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="34"/>
+      <c r="C154" s="33"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -15839,14 +15848,14 @@
       <c r="G158" s="2"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="33"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="32"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
@@ -16367,10 +16376,10 @@
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="34" t="s">
+      <c r="B185" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="34"/>
+      <c r="C185" s="33"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -16417,6 +16426,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B185:C185"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B96:G96"/>
@@ -16424,12 +16439,6 @@
     <mergeCell ref="B128:G128"/>
     <mergeCell ref="B154:C154"/>
     <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16468,19 +16477,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -17029,10 +17038,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -17084,14 +17093,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -17612,10 +17621,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -17667,14 +17676,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -18189,10 +18198,10 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="34"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -18244,14 +18253,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="33"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
@@ -18772,10 +18781,10 @@
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="34"/>
+      <c r="C122" s="33"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -18827,14 +18836,14 @@
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="33"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="32"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
@@ -19356,10 +19365,10 @@
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="34"/>
+      <c r="C153" s="33"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -19411,14 +19420,14 @@
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="33"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="32"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
@@ -19941,10 +19950,10 @@
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="34" t="s">
+      <c r="B184" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="34"/>
+      <c r="C184" s="33"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -19991,6 +20000,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B184:C184"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B96:G96"/>
@@ -19998,12 +20013,6 @@
     <mergeCell ref="B127:G127"/>
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20042,19 +20051,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -20616,10 +20625,10 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -20671,14 +20680,14 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
@@ -21189,10 +21198,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -21244,14 +21253,14 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="31">
+      <c r="B66" s="30">
         <v>44888</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="33"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
@@ -21772,10 +21781,10 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -21839,14 +21848,14 @@
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="33"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="32"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
@@ -22368,10 +22377,10 @@
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="34"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -22423,14 +22432,14 @@
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="33"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="32"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
@@ -22952,10 +22961,10 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="34"/>
+      <c r="C156" s="33"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -23007,14 +23016,14 @@
       <c r="G160" s="2"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="33"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="32"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
@@ -23533,10 +23542,10 @@
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="34"/>
+      <c r="C187" s="33"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -23583,6 +23592,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B187:C187"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B99:G99"/>
@@ -23590,12 +23605,6 @@
     <mergeCell ref="B130:G130"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23614,8 +23623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23624,7 +23633,7 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" customWidth="1"/>
@@ -23633,19 +23642,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -23698,15 +23707,15 @@
       </c>
       <c r="I4" s="11">
         <f>SUM(C30,C62,C93,C124,C155,C182)</f>
-        <v>1209</v>
+        <v>1355</v>
       </c>
       <c r="J4" s="11">
         <f>SUM(C94,C63,C31,C125,C156,C183)</f>
-        <v>253.99999999999997</v>
+        <v>297.59999999999997</v>
       </c>
       <c r="K4" s="22">
         <f>SUM(C32,C64,C95,C126,C157,C184)</f>
-        <v>955</v>
+        <v>1057.4000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -24213,10 +24222,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -24268,14 +24277,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -24308,7 +24317,7 @@
         <v>70</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F36" s="9">
         <v>0</v>
@@ -24326,7 +24335,7 @@
         <v>9.6</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>69</v>
@@ -24350,7 +24359,7 @@
         <v>70</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -24368,10 +24377,10 @@
         <v>35.6</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
@@ -24392,7 +24401,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
@@ -24410,7 +24419,7 @@
         <v>3.2</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>26</v>
@@ -24445,43 +24454,46 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
+      <c r="B43" s="5">
+        <v>126</v>
+      </c>
       <c r="C43" s="5">
-        <v>0</v>
+        <f>SUM(30+5*1.6)</f>
+        <v>38</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>25</v>
+        <v>330</v>
+      </c>
+      <c r="F43" s="9">
+        <v>5</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C44" s="5">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>25</v>
+        <v>331</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -24815,10 +24827,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -24830,7 +24842,7 @@
       </c>
       <c r="C62" s="24">
         <f>SUM(B35:B60)</f>
-        <v>454</v>
+        <v>600</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -24843,7 +24855,7 @@
       </c>
       <c r="C63" s="24">
         <f>SUM(C35:C60)</f>
-        <v>71.599999999999994</v>
+        <v>115.19999999999999</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -24856,7 +24868,7 @@
       </c>
       <c r="C64" s="12">
         <f>SUM(C62-C63)</f>
-        <v>382.4</v>
+        <v>484.8</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -24864,14 +24876,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="33"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
@@ -25392,10 +25404,10 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -25441,14 +25453,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="33"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="32"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
@@ -25969,10 +25981,10 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="34"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -26015,14 +26027,14 @@
     </row>
     <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="36"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="38"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
@@ -26543,10 +26555,10 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="38"/>
+      <c r="C154" s="36"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -26592,14 +26604,14 @@
       <c r="G157" s="2"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="36"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="38"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
@@ -26847,10 +26859,10 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="37" t="s">
+      <c r="B181" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="38"/>
+      <c r="C181" s="36"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -26897,6 +26909,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B123:C123"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:G34"/>
@@ -26904,12 +26922,6 @@
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B123:C123"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27020,7 +27032,7 @@
       </c>
       <c r="K3" s="18">
         <f>SUM('Semana 1'!I4,'Semana 2'!I4,'Semana 3'!I4,'Semana 4'!I4,'Semena 5'!I4)</f>
-        <v>14503</v>
+        <v>14649</v>
       </c>
       <c r="L3" s="18">
         <f>SUM(B3:I19)</f>
@@ -27028,15 +27040,15 @@
       </c>
       <c r="M3" s="18">
         <f>SUM('Semana 1'!K4,'Semana 3'!K4,'Semana 2'!K4,'Semena 5'!K4,'Semana 4'!K4)</f>
-        <v>11341.03</v>
+        <v>11443.43</v>
       </c>
       <c r="N3" s="18">
         <f>SUM(B3:I6,'Semena 5'!J4,'Semana 4'!J4,'Semana 3'!J4,'Semana 2'!J4,'Semana 1'!J4)</f>
-        <v>7461.83</v>
+        <v>7505.43</v>
       </c>
       <c r="P3" s="18">
         <f>SUM(M3-L3)</f>
-        <v>3279.0400000000018</v>
+        <v>3381.4400000000014</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">

--- a/Lucros 2022/Novembro - Livro Caixa.xlsx
+++ b/Lucros 2022/Novembro - Livro Caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Planilhas\Lucros 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C8D1E-D119-4739-907C-93E21F4BD7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041B9CDC-7CF4-4353-9DE8-DD9DB43072A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="340">
   <si>
     <t>Valor Bruto</t>
   </si>
@@ -134,9 +134,6 @@
     <t>27A</t>
   </si>
   <si>
-    <t>28/09/2022 - Chaveiro Agua Verde</t>
-  </si>
-  <si>
     <t>29/09/2022 Chaveiro Agua Verde</t>
   </si>
   <si>
@@ -1041,6 +1038,30 @@
   </si>
   <si>
     <t>Troca de miolo (p. correr)/pix</t>
+  </si>
+  <si>
+    <t>30/11/2022 - Chaveiro Agua Verde</t>
+  </si>
+  <si>
+    <t>BR 312</t>
+  </si>
+  <si>
+    <t>Abertura;troca de fechadura/Pix</t>
+  </si>
+  <si>
+    <t>HAGA 1054</t>
+  </si>
+  <si>
+    <t>Gorja/Deb</t>
+  </si>
+  <si>
+    <t>SOP 4</t>
+  </si>
+  <si>
+    <t>Abertura Automotiva/</t>
+  </si>
+  <si>
+    <t>St 1040 / 3F 1024</t>
   </si>
 </sst>
 </file>
@@ -1363,6 +1384,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,7 +1399,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1383,12 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8839,19 +8860,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="34" t="s">
+      <c r="B2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -8890,7 +8911,7 @@
         <v>3.2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>27</v>
@@ -8926,7 +8947,7 @@
         <v>2032</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -8944,7 +8965,7 @@
         <v>3.2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>27</v>
@@ -8968,7 +8989,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -8986,7 +9007,7 @@
         <v>1.6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>27</v>
@@ -9007,10 +9028,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="9">
         <v>3</v>
@@ -9028,10 +9049,10 @@
         <v>60</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -9049,7 +9070,7 @@
         <v>1.6</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>26</v>
@@ -9070,7 +9091,7 @@
         <v>9.6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>27</v>
@@ -9091,10 +9112,10 @@
         <v>5.6</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
@@ -9115,7 +9136,7 @@
         <v>2016</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -9393,10 +9414,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="34"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -9426,14 +9447,14 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -9463,10 +9484,10 @@
         <v>1.6</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -9484,10 +9505,10 @@
         <v>3.2</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F37" s="9">
         <v>3</v>
@@ -9505,10 +9526,10 @@
         <v>1.6</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
@@ -9526,10 +9547,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
@@ -9548,10 +9569,10 @@
         <v>10.4</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F40" s="9">
         <v>3</v>
@@ -9570,10 +9591,10 @@
         <v>6.4</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="9">
         <v>4</v>
@@ -9591,10 +9612,10 @@
         <v>3.2</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="9">
         <v>2</v>
@@ -9612,10 +9633,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="9">
         <v>2</v>
@@ -9633,10 +9654,10 @@
         <v>3.2</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="F44" s="9">
         <v>2</v>
@@ -9652,10 +9673,10 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -9673,10 +9694,10 @@
         <v>7.2</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="F46" s="9">
         <v>1</v>
@@ -9694,10 +9715,10 @@
         <v>3.2</v>
       </c>
       <c r="D47" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="F47" s="9">
         <v>2</v>
@@ -9954,10 +9975,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="34"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
@@ -9987,14 +10008,14 @@
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
+      <c r="B65" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -10024,10 +10045,10 @@
         <v>40</v>
       </c>
       <c r="D67" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -10045,10 +10066,10 @@
         <v>4.8</v>
       </c>
       <c r="D68" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="F68" s="9">
         <v>3</v>
@@ -10066,10 +10087,10 @@
         <v>5.6</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -10087,7 +10108,7 @@
         <v>1.6</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>26</v>
@@ -10108,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -10132,7 +10153,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>25</v>
@@ -10153,7 +10174,7 @@
         <v>2032</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F73" s="9">
         <v>0</v>
@@ -10171,10 +10192,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -10192,10 +10213,10 @@
         <v>1.6</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="F75" s="9">
         <v>1</v>
@@ -10213,10 +10234,10 @@
         <v>12</v>
       </c>
       <c r="D76" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -10234,7 +10255,7 @@
         <v>1.6</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>27</v>
@@ -10255,10 +10276,10 @@
         <v>11.2</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -10276,10 +10297,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="F79" s="9">
         <v>1</v>
@@ -10297,7 +10318,7 @@
         <v>4.8</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>26</v>
@@ -10318,10 +10339,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -10339,7 +10360,7 @@
         <v>3.2</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>26</v>
@@ -10360,7 +10381,7 @@
         <v>3.2</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>26</v>
@@ -10515,10 +10536,10 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="33"/>
+      <c r="C91" s="34"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
@@ -10548,14 +10569,14 @@
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="32"/>
+      <c r="B98" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="33"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
@@ -10586,10 +10607,10 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F100" s="9">
         <v>3</v>
@@ -10607,10 +10628,10 @@
         <v>1.6</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F101" s="9">
         <v>1</v>
@@ -10629,10 +10650,10 @@
         <v>14.2</v>
       </c>
       <c r="D102" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="F102" s="9">
         <v>0</v>
@@ -10650,10 +10671,10 @@
         <v>1.6</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F103" s="9">
         <v>0</v>
@@ -11078,10 +11099,10 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="33"/>
+      <c r="C124" s="34"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
@@ -11117,14 +11138,14 @@
       <c r="G129"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="32"/>
+      <c r="B130" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="33"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
@@ -11625,10 +11646,10 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="33"/>
+      <c r="C156" s="34"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
@@ -11664,14 +11685,14 @@
       <c r="G160"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="32"/>
+      <c r="B161" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="33"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
@@ -12192,10 +12213,10 @@
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="33" t="s">
+      <c r="B187" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="33"/>
+      <c r="C187" s="34"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
@@ -12231,14 +12252,14 @@
       <c r="G191"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="32"/>
+      <c r="B192" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="33"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="14" t="s">
@@ -12759,10 +12780,10 @@
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="33" t="s">
+      <c r="B218" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C218" s="33"/>
+      <c r="C218" s="34"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="12" t="s">
@@ -12872,6 +12893,12 @@
     <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B187:C187"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B60:C60"/>
@@ -12881,12 +12908,6 @@
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B187:C187"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12926,19 +12947,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="34" t="s">
+      <c r="B2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -12977,7 +12998,7 @@
         <v>1.6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>26</v>
@@ -13010,7 +13031,7 @@
         <v>1.6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>27</v>
@@ -13031,10 +13052,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="9">
         <v>2</v>
@@ -13052,10 +13073,10 @@
         <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>25</v>
@@ -13073,10 +13094,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -13094,10 +13115,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -13115,10 +13136,10 @@
         <v>50</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -13136,10 +13157,10 @@
         <v>3.2</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="9">
         <v>2</v>
@@ -13157,10 +13178,10 @@
         <v>33.200000000000003</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="F12" s="9">
         <v>2</v>
@@ -13178,10 +13199,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="9">
         <v>1</v>
@@ -13199,7 +13220,7 @@
         <v>6.4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>26</v>
@@ -13220,10 +13241,10 @@
         <v>1.6</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="9">
         <v>1</v>
@@ -13241,7 +13262,7 @@
         <v>3.2</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>26</v>
@@ -13262,10 +13283,10 @@
         <v>1.6</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="9">
         <v>1</v>
@@ -13283,7 +13304,7 @@
         <v>1.6</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>26</v>
@@ -13304,10 +13325,10 @@
         <v>3.2</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="F19" s="9">
         <v>2</v>
@@ -13486,10 +13507,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -13541,14 +13562,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -13578,10 +13599,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="F36" s="9">
         <v>0</v>
@@ -13599,10 +13620,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="9">
         <v>0</v>
@@ -13620,7 +13641,7 @@
         <v>3.2</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>26</v>
@@ -13641,10 +13662,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -13662,10 +13683,10 @@
         <v>20</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
@@ -13683,10 +13704,10 @@
         <v>5.9</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="F41" s="9">
         <v>3</v>
@@ -13704,7 +13725,7 @@
         <v>1.6</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>26</v>
@@ -13725,10 +13746,10 @@
         <v>165</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>25</v>
@@ -13746,7 +13767,7 @@
         <v>1.6</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>26</v>
@@ -13767,7 +13788,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>27</v>
@@ -13788,7 +13809,7 @@
         <v>4.8</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>26</v>
@@ -13809,7 +13830,7 @@
         <v>1.6</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>26</v>
@@ -13830,7 +13851,7 @@
         <v>3.2</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>26</v>
@@ -13854,7 +13875,7 @@
         <v>2032</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
@@ -13872,10 +13893,10 @@
         <v>4.8</v>
       </c>
       <c r="D50" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="F50" s="9">
         <v>3</v>
@@ -13893,10 +13914,10 @@
         <v>15</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="F51" s="9">
         <v>0</v>
@@ -14069,10 +14090,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -14124,14 +14145,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
+      <c r="B65" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -14161,10 +14182,10 @@
         <v>1.6</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F67" s="9">
         <v>1</v>
@@ -14182,10 +14203,10 @@
         <v>3.2</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>25</v>
@@ -14203,7 +14224,7 @@
         <v>3.2</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>26</v>
@@ -14224,7 +14245,7 @@
         <v>3.2</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>27</v>
@@ -14245,7 +14266,7 @@
         <v>20</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>25</v>
@@ -14266,10 +14287,10 @@
         <v>38.200000000000003</v>
       </c>
       <c r="D72" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="F72" s="9">
         <v>3</v>
@@ -14287,7 +14308,7 @@
         <v>1.6</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>27</v>
@@ -14308,10 +14329,10 @@
         <v>23.2</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F74" s="9">
         <v>2</v>
@@ -14329,10 +14350,10 @@
         <v>6.2</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="F75" s="9">
         <v>2</v>
@@ -14350,10 +14371,10 @@
         <v>20</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -14371,10 +14392,10 @@
         <v>20</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F77" s="9">
         <v>0</v>
@@ -14392,10 +14413,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -14413,10 +14434,10 @@
         <v>1.6</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F79" s="9">
         <v>1</v>
@@ -14434,10 +14455,10 @@
         <v>4.8</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F80" s="9">
         <v>3</v>
@@ -14455,10 +14476,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -14476,10 +14497,10 @@
         <v>1.6</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F82" s="9">
         <v>1</v>
@@ -14497,10 +14518,10 @@
         <v>0</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F83" s="9">
         <v>0</v>
@@ -14519,10 +14540,10 @@
         <v>6.4</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="F84" s="9">
         <v>4</v>
@@ -14540,7 +14561,7 @@
         <v>1.6</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>26</v>
@@ -14611,10 +14632,10 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="33"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -14678,14 +14699,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="32"/>
+      <c r="B96" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="33"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
@@ -14715,7 +14736,7 @@
         <v>1.6</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>26</v>
@@ -14736,10 +14757,10 @@
         <v>0</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F99" s="9">
         <v>0</v>
@@ -14757,7 +14778,7 @@
         <v>1.6</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>26</v>
@@ -14778,10 +14799,10 @@
         <v>3.2</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F101" s="9">
         <v>2</v>
@@ -14799,10 +14820,10 @@
         <v>150</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F102" s="9">
         <v>0</v>
@@ -14820,10 +14841,10 @@
         <v>1.6</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F103" s="9">
         <v>1</v>
@@ -14841,7 +14862,7 @@
         <v>1.6</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>27</v>
@@ -14862,7 +14883,7 @@
         <v>3.2</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>27</v>
@@ -14881,10 +14902,10 @@
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -14902,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>25</v>
@@ -14923,10 +14944,10 @@
         <v>5</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F108" s="9">
         <v>1</v>
@@ -14944,7 +14965,7 @@
         <v>3.2</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>27</v>
@@ -14965,10 +14986,10 @@
         <v>1.6</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F110" s="9">
         <v>1</v>
@@ -14986,10 +15007,10 @@
         <v>50</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F111" s="9">
         <v>0</v>
@@ -15007,10 +15028,10 @@
         <v>3.2</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F112" s="9">
         <v>0</v>
@@ -15210,10 +15231,10 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="33"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -15265,14 +15286,14 @@
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="32"/>
+      <c r="B128" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="33"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
@@ -15302,10 +15323,10 @@
         <v>0</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -15324,10 +15345,10 @@
         <v>30.4</v>
       </c>
       <c r="D131" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="F131" s="9">
         <v>10</v>
@@ -15346,10 +15367,10 @@
         <v>3.75</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F132" s="9">
         <v>2</v>
@@ -15367,7 +15388,7 @@
         <v>1.6</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>26</v>
@@ -15388,7 +15409,7 @@
         <v>1.6</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>26</v>
@@ -15409,10 +15430,10 @@
         <v>6.4</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F135" s="9">
         <v>4</v>
@@ -15430,10 +15451,10 @@
         <v>2.15</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F136" s="9">
         <v>1</v>
@@ -15451,10 +15472,10 @@
         <v>20</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F137" s="9">
         <v>0</v>
@@ -15472,7 +15493,7 @@
         <v>3.2</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>26</v>
@@ -15493,7 +15514,7 @@
         <v>1.6</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>26</v>
@@ -15514,7 +15535,7 @@
         <v>4.8</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>26</v>
@@ -15535,7 +15556,7 @@
         <v>1.6</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>26</v>
@@ -15556,10 +15577,10 @@
         <v>5</v>
       </c>
       <c r="D142" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="F142" s="9">
         <v>0</v>
@@ -15577,10 +15598,10 @@
         <v>95</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F143" s="9">
         <v>0</v>
@@ -15598,10 +15619,10 @@
         <v>1.6</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F144" s="9">
         <v>1</v>
@@ -15793,10 +15814,10 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="33"/>
+      <c r="C154" s="34"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -15848,14 +15869,14 @@
       <c r="G158" s="2"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="32"/>
+      <c r="B159" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="33"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
@@ -15885,10 +15906,10 @@
         <v>63</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F161" s="9" t="s">
         <v>25</v>
@@ -15906,7 +15927,7 @@
         <v>1.6</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>27</v>
@@ -15927,10 +15948,10 @@
         <v>3.2</v>
       </c>
       <c r="D163" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E163" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="F163" s="9">
         <v>2</v>
@@ -15948,10 +15969,10 @@
         <v>1.6</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F164" s="9">
         <v>2</v>
@@ -15969,10 +15990,10 @@
         <v>1.6</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F165" s="9">
         <v>1</v>
@@ -15990,10 +16011,10 @@
         <v>1.6</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F166" s="9">
         <v>1</v>
@@ -16011,10 +16032,10 @@
         <v>0</v>
       </c>
       <c r="D167" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E167" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="F167" s="9">
         <v>1</v>
@@ -16032,10 +16053,10 @@
         <v>4.8</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F168" s="9">
         <v>3</v>
@@ -16376,10 +16397,10 @@
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="33"/>
+      <c r="C185" s="34"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -16426,12 +16447,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B185:C185"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B96:G96"/>
@@ -16439,6 +16454,12 @@
     <mergeCell ref="B128:G128"/>
     <mergeCell ref="B154:C154"/>
     <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16477,19 +16498,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="34" t="s">
+      <c r="B2" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -16528,10 +16549,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -16561,7 +16582,7 @@
         <v>1.6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>26</v>
@@ -16582,7 +16603,7 @@
         <v>1.6</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>27</v>
@@ -16603,10 +16624,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -16624,10 +16645,10 @@
         <v>3.2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="9">
         <v>2</v>
@@ -16645,7 +16666,7 @@
         <v>4.8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>27</v>
@@ -16666,7 +16687,7 @@
         <v>3.2</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>26</v>
@@ -16687,10 +16708,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
@@ -16708,10 +16729,10 @@
         <v>3.2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="9">
         <v>2</v>
@@ -16730,7 +16751,7 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>27</v>
@@ -16751,7 +16772,7 @@
         <v>3.2</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>26</v>
@@ -16775,7 +16796,7 @@
         <v>2032</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -16793,7 +16814,7 @@
         <v>1.6</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>27</v>
@@ -16814,10 +16835,10 @@
         <v>90</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
@@ -17038,10 +17059,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -17093,14 +17114,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -17621,10 +17642,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -17676,14 +17697,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
+      <c r="B65" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -17713,10 +17734,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F67" s="9">
         <v>1</v>
@@ -17734,10 +17755,10 @@
         <v>9.6</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F68" s="9">
         <v>6</v>
@@ -17755,10 +17776,10 @@
         <v>22.4</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -17776,7 +17797,7 @@
         <v>3.2</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>27</v>
@@ -17800,7 +17821,7 @@
         <v>25</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F71" s="9">
         <v>0</v>
@@ -17818,10 +17839,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="F72" s="9">
         <v>1</v>
@@ -17839,7 +17860,7 @@
         <v>6.4</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>26</v>
@@ -17860,10 +17881,10 @@
         <v>12</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
@@ -17881,7 +17902,7 @@
         <v>3.2</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>26</v>
@@ -17902,10 +17923,10 @@
         <v>3.2</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F76" s="9">
         <v>2</v>
@@ -17919,7 +17940,7 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
@@ -17938,7 +17959,7 @@
         <v>3.2</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>26</v>
@@ -17959,7 +17980,7 @@
         <v>3.2</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>26</v>
@@ -17980,7 +18001,7 @@
         <v>3.2</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>26</v>
@@ -18001,7 +18022,7 @@
         <v>1.6</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>26</v>
@@ -18022,10 +18043,10 @@
         <v>3.2</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F82" s="9">
         <v>3</v>
@@ -18043,7 +18064,7 @@
         <v>1.6</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>26</v>
@@ -18064,10 +18085,10 @@
         <v>32.799999999999997</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="F84" s="9">
         <v>12</v>
@@ -18085,10 +18106,10 @@
         <v>3.2</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F85" s="9">
         <v>2</v>
@@ -18106,10 +18127,10 @@
         <v>5.6</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F86" s="9">
         <v>0</v>
@@ -18127,10 +18148,10 @@
         <v>8.5</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F87" s="9">
         <v>4</v>
@@ -18148,10 +18169,10 @@
         <v>5.6</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F88" s="9">
         <v>0</v>
@@ -18172,7 +18193,7 @@
         <v>25</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F89" s="9">
         <v>0</v>
@@ -18198,10 +18219,10 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="33"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -18253,14 +18274,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="32"/>
+      <c r="B96" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="33"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
@@ -18290,10 +18311,10 @@
         <v>5</v>
       </c>
       <c r="D98" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="F98" s="9">
         <v>1</v>
@@ -18311,10 +18332,10 @@
         <v>30</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F99" s="9">
         <v>0</v>
@@ -18332,7 +18353,7 @@
         <v>3.2</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>26</v>
@@ -18353,10 +18374,10 @@
         <v>30</v>
       </c>
       <c r="D101" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="F101" s="9">
         <v>0</v>
@@ -18374,7 +18395,7 @@
         <v>1.6</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>26</v>
@@ -18395,10 +18416,10 @@
         <v>10</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F103" s="9">
         <v>2</v>
@@ -18416,10 +18437,10 @@
         <v>90</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>25</v>
@@ -18437,10 +18458,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F105" s="9">
         <v>0</v>
@@ -18781,10 +18802,10 @@
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="33"/>
+      <c r="C122" s="34"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -18836,14 +18857,14 @@
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="32"/>
+      <c r="B127" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="33"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
@@ -18873,10 +18894,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="F129" s="9">
         <v>1</v>
@@ -18894,10 +18915,10 @@
         <v>1.6</v>
       </c>
       <c r="D130" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="F130" s="9">
         <v>1</v>
@@ -18916,10 +18937,10 @@
         <v>33.200000000000003</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F131" s="9">
         <v>2</v>
@@ -18937,10 +18958,10 @@
         <v>5</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F132" s="9">
         <v>1</v>
@@ -18958,10 +18979,10 @@
         <v>1.6</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F133" s="9">
         <v>1</v>
@@ -18979,10 +19000,10 @@
         <v>1.6</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F134" s="9">
         <v>1</v>
@@ -19365,10 +19386,10 @@
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="33"/>
+      <c r="C153" s="34"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -19420,14 +19441,14 @@
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="32"/>
+      <c r="B158" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="33"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
@@ -19458,10 +19479,10 @@
         <v>36.6</v>
       </c>
       <c r="D160" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E160" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="F160" s="9">
         <v>1</v>
@@ -19479,10 +19500,10 @@
         <v>3.2</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F161" s="9">
         <v>2</v>
@@ -19500,10 +19521,10 @@
         <v>3.2</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F162" s="9">
         <v>2</v>
@@ -19522,10 +19543,10 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F163" s="9">
         <v>3</v>
@@ -19543,10 +19564,10 @@
         <v>5</v>
       </c>
       <c r="D164" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E164" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="F164" s="9">
         <v>1</v>
@@ -19564,7 +19585,7 @@
         <v>1.6</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>26</v>
@@ -19950,10 +19971,10 @@
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="33" t="s">
+      <c r="B184" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="33"/>
+      <c r="C184" s="34"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -20000,12 +20021,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B184:C184"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B96:G96"/>
@@ -20013,6 +20028,12 @@
     <mergeCell ref="B127:G127"/>
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20051,19 +20072,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="I2" s="34" t="s">
+      <c r="B2" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -20102,10 +20123,10 @@
         <v>3.2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -20135,10 +20156,10 @@
         <v>9.6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="9">
         <v>6</v>
@@ -20159,7 +20180,7 @@
         <v>2032</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -20177,10 +20198,10 @@
         <v>7.2</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -20199,10 +20220,10 @@
         <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -20222,7 +20243,7 @@
         <v>12.8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>27</v>
@@ -20243,10 +20264,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -20264,10 +20285,10 @@
         <v>5.6</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
@@ -20625,10 +20646,10 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -20680,14 +20701,14 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
+      <c r="B35" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
@@ -20717,10 +20738,10 @@
         <v>1.6</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -20738,10 +20759,10 @@
         <v>3.2</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="9">
         <v>2</v>
@@ -20759,10 +20780,10 @@
         <v>3.2</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="9">
         <v>2</v>
@@ -20780,10 +20801,10 @@
         <v>97</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="F40" s="9">
         <v>2</v>
@@ -20801,10 +20822,10 @@
         <v>1.6</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="9">
         <v>1</v>
@@ -20822,10 +20843,10 @@
         <v>51.6</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F42" s="9">
         <v>1</v>
@@ -20843,10 +20864,10 @@
         <v>30</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F43" s="9">
         <v>0</v>
@@ -20864,10 +20885,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="F44" s="9">
         <v>4</v>
@@ -20888,7 +20909,7 @@
         <v>2032</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" s="9">
         <v>1</v>
@@ -21198,10 +21219,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="33"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -21253,14 +21274,14 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="30">
+      <c r="B66" s="31">
         <v>44888</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
@@ -21290,10 +21311,10 @@
         <v>3.2</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F68" s="9">
         <v>2</v>
@@ -21311,10 +21332,10 @@
         <v>30</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -21332,10 +21353,10 @@
         <v>21.2</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F70" s="9">
         <v>9</v>
@@ -21353,10 +21374,10 @@
         <v>18</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F71" s="9">
         <v>3</v>
@@ -21374,10 +21395,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -21395,10 +21416,10 @@
         <v>1.6</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F73" s="9">
         <v>1</v>
@@ -21416,7 +21437,7 @@
         <v>6.4</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>27</v>
@@ -21437,10 +21458,10 @@
         <v>1.6</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F75" s="9">
         <v>1</v>
@@ -21458,7 +21479,7 @@
         <v>1.6</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>26</v>
@@ -21479,10 +21500,10 @@
         <v>50</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F77" s="9">
         <v>0</v>
@@ -21500,10 +21521,10 @@
         <v>3.2</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F78" s="9">
         <v>2</v>
@@ -21781,10 +21802,10 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="33"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -21848,14 +21869,14 @@
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="32"/>
+      <c r="B99" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="33"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
@@ -21886,10 +21907,10 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F101" s="9">
         <v>3</v>
@@ -21907,10 +21928,10 @@
         <v>12</v>
       </c>
       <c r="D102" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="F102" s="9">
         <v>2</v>
@@ -21928,10 +21949,10 @@
         <v>6</v>
       </c>
       <c r="D103" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="F103" s="9">
         <v>1</v>
@@ -21949,10 +21970,10 @@
         <v>6.2</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F104" s="9">
         <v>4</v>
@@ -21970,7 +21991,7 @@
         <v>3.2</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>27</v>
@@ -21991,10 +22012,10 @@
         <v>0</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F106" s="9">
         <v>0</v>
@@ -22012,7 +22033,7 @@
         <v>3.2</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>26</v>
@@ -22033,7 +22054,7 @@
         <v>3.2</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>26</v>
@@ -22054,10 +22075,10 @@
         <v>185</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F109" s="9">
         <v>0</v>
@@ -22075,7 +22096,7 @@
         <v>1.6</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>27</v>
@@ -22377,10 +22398,10 @@
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="33"/>
+      <c r="C125" s="34"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -22432,14 +22453,14 @@
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="32"/>
+      <c r="B130" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="33"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
@@ -22455,7 +22476,7 @@
         <v>5</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>4</v>
@@ -22470,10 +22491,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D132" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="F132" s="9">
         <v>2</v>
@@ -22491,10 +22512,10 @@
         <v>90</v>
       </c>
       <c r="D133" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E133" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>297</v>
       </c>
       <c r="F133" s="9">
         <v>0</v>
@@ -22512,10 +22533,10 @@
         <v>1.6</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F134" s="9">
         <v>1</v>
@@ -22533,7 +22554,7 @@
         <v>3.2</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>26</v>
@@ -22554,7 +22575,7 @@
         <v>3.2</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>26</v>
@@ -22575,7 +22596,7 @@
         <v>4.8</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>26</v>
@@ -22596,10 +22617,10 @@
         <v>60</v>
       </c>
       <c r="D138" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="F138" s="9">
         <v>0</v>
@@ -22617,7 +22638,7 @@
         <v>3.2</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>26</v>
@@ -22961,10 +22982,10 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="33"/>
+      <c r="C156" s="34"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -23016,14 +23037,14 @@
       <c r="G160" s="2"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="32"/>
+      <c r="B161" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="33"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
@@ -23053,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F163" s="9">
         <v>0</v>
@@ -23074,10 +23095,10 @@
         <v>0</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F164" s="9">
         <v>0</v>
@@ -23542,10 +23563,10 @@
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="33" t="s">
+      <c r="B187" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="33"/>
+      <c r="C187" s="34"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -23592,12 +23613,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B187:C187"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B99:G99"/>
@@ -23605,6 +23620,12 @@
     <mergeCell ref="B130:G130"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23623,8 +23644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23642,19 +23663,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="34" t="s">
+      <c r="B2" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="I2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -23693,10 +23714,10 @@
         <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -23707,15 +23728,15 @@
       </c>
       <c r="I4" s="11">
         <f>SUM(C30,C62,C93,C124,C155,C182)</f>
-        <v>1355</v>
+        <v>1780</v>
       </c>
       <c r="J4" s="11">
         <f>SUM(C94,C63,C31,C125,C156,C183)</f>
-        <v>297.59999999999997</v>
+        <v>366</v>
       </c>
       <c r="K4" s="22">
         <f>SUM(C32,C64,C95,C126,C157,C184)</f>
-        <v>1057.4000000000001</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -23726,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -23753,7 +23774,7 @@
         <v>2032</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -23771,7 +23792,7 @@
         <v>1.6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>26</v>
@@ -23792,7 +23813,7 @@
         <v>1.6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>27</v>
@@ -23816,7 +23837,7 @@
         <v>2032</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -23834,10 +23855,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -23855,7 +23876,7 @@
         <v>4.8</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>27</v>
@@ -23876,7 +23897,7 @@
         <v>1.6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>26</v>
@@ -23897,10 +23918,10 @@
         <v>4.8</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="9">
         <v>3</v>
@@ -23918,10 +23939,10 @@
         <v>1.6</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
@@ -23939,10 +23960,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F15" s="9">
         <v>2</v>
@@ -23960,10 +23981,10 @@
         <v>4.8</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="9">
         <v>3</v>
@@ -23981,10 +24002,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="F17" s="9">
         <v>2</v>
@@ -24004,10 +24025,10 @@
         <v>7.6</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>321</v>
       </c>
       <c r="F18" s="9">
         <v>1</v>
@@ -24028,7 +24049,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="9">
         <v>0</v>
@@ -24222,10 +24243,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="36"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -24277,14 +24298,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -24314,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F36" s="9">
         <v>0</v>
@@ -24335,10 +24356,10 @@
         <v>9.6</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="9">
         <v>6</v>
@@ -24356,10 +24377,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -24377,10 +24398,10 @@
         <v>35.6</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
@@ -24398,10 +24419,10 @@
         <v>5.6</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
@@ -24419,7 +24440,7 @@
         <v>3.2</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>26</v>
@@ -24440,10 +24461,10 @@
         <v>5.6</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9">
         <v>0</v>
@@ -24462,10 +24483,10 @@
         <v>38</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="F43" s="9">
         <v>5</v>
@@ -24483,10 +24504,10 @@
         <v>5.6</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F44" s="9">
         <v>0</v>
@@ -24827,10 +24848,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="33"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -24876,14 +24897,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
+      <c r="B66" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
@@ -24907,191 +24928,191 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C68" s="5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" ref="G68:G91" si="3">SUM(B68-C68)</f>
-        <v>0</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C69" s="5">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="5">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C70" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>25</v>
+        <v>334</v>
+      </c>
+      <c r="F70" s="9">
+        <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C71" s="5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="F71" s="9">
+        <v>2</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>25</v>
+        <v>336</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C73" s="5">
         <v>0</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>25</v>
+        <v>338</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C74" s="5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C75" s="5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C76" s="5">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="F76" s="9">
+        <v>2</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
@@ -25404,10 +25425,10 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="33"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -25419,7 +25440,7 @@
       </c>
       <c r="C93" s="24">
         <f>SUM(B68:B91)</f>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -25432,7 +25453,7 @@
       </c>
       <c r="C94" s="24">
         <f>SUM(C68:C91)</f>
-        <v>0</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -25445,7 +25466,7 @@
       </c>
       <c r="C95" s="12">
         <f>SUM(C93-C94)</f>
-        <v>0</v>
+        <v>356.6</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -25453,14 +25474,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="32"/>
+      <c r="B97" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="33"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
@@ -25981,10 +26002,10 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="33"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -26027,14 +26048,14 @@
     </row>
     <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="38"/>
+      <c r="B128" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="36"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
@@ -26555,10 +26576,10 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="35" t="s">
+      <c r="B154" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="36"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -26604,14 +26625,14 @@
       <c r="G157" s="2"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="38"/>
+      <c r="B159" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="36"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
@@ -26859,10 +26880,10 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="35" t="s">
+      <c r="B181" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="36"/>
+      <c r="C181" s="38"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -26909,12 +26930,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B123:C123"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:G34"/>
@@ -26922,6 +26937,12 @@
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B123:C123"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26941,7 +26962,7 @@
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27032,23 +27053,23 @@
       </c>
       <c r="K3" s="18">
         <f>SUM('Semana 1'!I4,'Semana 2'!I4,'Semana 3'!I4,'Semana 4'!I4,'Semena 5'!I4)</f>
-        <v>14649</v>
+        <v>15074</v>
       </c>
       <c r="L3" s="18">
         <f>SUM(B3:I19)</f>
-        <v>8061.9899999999989</v>
+        <v>8156.9899999999989</v>
       </c>
       <c r="M3" s="18">
         <f>SUM('Semana 1'!K4,'Semana 3'!K4,'Semana 2'!K4,'Semena 5'!K4,'Semana 4'!K4)</f>
-        <v>11443.43</v>
+        <v>11800.03</v>
       </c>
       <c r="N3" s="18">
         <f>SUM(B3:I6,'Semena 5'!J4,'Semana 4'!J4,'Semana 3'!J4,'Semana 2'!J4,'Semana 1'!J4)</f>
-        <v>7505.43</v>
+        <v>7573.83</v>
       </c>
       <c r="P3" s="18">
         <f>SUM(M3-L3)</f>
-        <v>3381.4400000000014</v>
+        <v>3643.0400000000018</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
@@ -27239,7 +27260,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="23">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D11" s="23">
         <v>0</v>
@@ -27475,7 +27496,7 @@
       </c>
       <c r="C20" s="27">
         <f>SUM(C3:C18)</f>
-        <v>1925</v>
+        <v>2020</v>
       </c>
       <c r="D20" s="27">
         <f t="shared" ref="D20:I20" si="0">SUM(D3:D18)</f>
@@ -27504,7 +27525,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Lucros 2022/Novembro - Livro Caixa.xlsx
+++ b/Lucros 2022/Novembro - Livro Caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Planilhas\Lucros 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041B9CDC-7CF4-4353-9DE8-DD9DB43072A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4309CCDA-62AC-45DC-81D4-2F6924BA3D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="340">
   <si>
     <t>Valor Bruto</t>
   </si>
@@ -1384,9 +1384,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,10 +1396,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1410,6 +1404,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8860,19 +8860,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -9414,10 +9414,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
@@ -9447,14 +9447,14 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -9975,10 +9975,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="33"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
@@ -10008,14 +10008,14 @@
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -10536,10 +10536,10 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="34"/>
+      <c r="C91" s="33"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
@@ -10569,14 +10569,14 @@
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="33"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="32"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
@@ -11099,10 +11099,10 @@
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="34"/>
+      <c r="C124" s="33"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
@@ -11138,14 +11138,14 @@
       <c r="G129"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="33"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="32"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
@@ -11646,10 +11646,10 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="34"/>
+      <c r="C156" s="33"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
@@ -11685,14 +11685,14 @@
       <c r="G160"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="33"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="32"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
@@ -12213,10 +12213,10 @@
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="34"/>
+      <c r="C187" s="33"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
@@ -12252,14 +12252,14 @@
       <c r="G191"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="31" t="s">
+      <c r="B192" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="33"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="32"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="14" t="s">
@@ -12780,10 +12780,10 @@
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C218" s="34"/>
+      <c r="C218" s="33"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="12" t="s">
@@ -12893,12 +12893,6 @@
     <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B187:C187"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B60:C60"/>
@@ -12908,6 +12902,12 @@
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B187:C187"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12947,19 +12947,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -13507,10 +13507,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -13562,14 +13562,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -14090,10 +14090,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -14145,14 +14145,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -14632,10 +14632,10 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="34"/>
+      <c r="C89" s="33"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -14699,14 +14699,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="33"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
@@ -15231,10 +15231,10 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="34"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -15286,14 +15286,14 @@
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="33"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="32"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
@@ -15814,10 +15814,10 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="34"/>
+      <c r="C154" s="33"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -15869,14 +15869,14 @@
       <c r="G158" s="2"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="33"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="32"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
@@ -16397,10 +16397,10 @@
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="34" t="s">
+      <c r="B185" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="34"/>
+      <c r="C185" s="33"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -16447,6 +16447,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B185:C185"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B96:G96"/>
@@ -16454,12 +16460,6 @@
     <mergeCell ref="B128:G128"/>
     <mergeCell ref="B154:C154"/>
     <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16498,19 +16498,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -17059,10 +17059,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -17114,14 +17114,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -17642,10 +17642,10 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -17697,14 +17697,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
@@ -18219,10 +18219,10 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="34"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -18274,14 +18274,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="33"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
@@ -18802,10 +18802,10 @@
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="34"/>
+      <c r="C122" s="33"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -18857,14 +18857,14 @@
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="33"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="32"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="14" t="s">
@@ -19386,10 +19386,10 @@
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="34"/>
+      <c r="C153" s="33"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -19441,14 +19441,14 @@
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="33"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="32"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
@@ -19971,10 +19971,10 @@
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="34" t="s">
+      <c r="B184" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="34"/>
+      <c r="C184" s="33"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -20021,6 +20021,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B184:C184"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B96:G96"/>
@@ -20028,12 +20034,6 @@
     <mergeCell ref="B127:G127"/>
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20072,19 +20072,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -20646,10 +20646,10 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -20701,14 +20701,14 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
@@ -21219,10 +21219,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -21274,14 +21274,14 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="31">
+      <c r="B66" s="30">
         <v>44888</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="33"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
@@ -21802,10 +21802,10 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -21869,14 +21869,14 @@
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="33"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="32"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
@@ -22398,10 +22398,10 @@
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="34"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -22453,14 +22453,14 @@
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="33"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="32"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
@@ -22982,10 +22982,10 @@
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="34"/>
+      <c r="C156" s="33"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -23037,14 +23037,14 @@
       <c r="G160" s="2"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="33"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="32"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
@@ -23563,10 +23563,10 @@
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="34"/>
+      <c r="C187" s="33"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -23613,6 +23613,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B187:C187"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B99:G99"/>
@@ -23620,12 +23626,6 @@
     <mergeCell ref="B130:G130"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23644,8 +23644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23663,19 +23663,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -24243,10 +24243,10 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -24298,14 +24298,14 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
@@ -24848,10 +24848,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -24897,14 +24897,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="33"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
@@ -25087,7 +25087,7 @@
         <v>27</v>
       </c>
       <c r="F75" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="3"/>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
         <v>0</v>
       </c>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
         <v>0</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
         <v>0</v>
       </c>
@@ -25262,7 +25262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
         <v>0</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="5">
         <v>0</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="5">
         <v>0</v>
       </c>
@@ -25324,8 +25324,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="5">
         <v>0</v>
       </c>
@@ -25346,7 +25349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
         <v>0</v>
       </c>
@@ -25367,7 +25370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
         <v>0</v>
       </c>
@@ -25388,7 +25391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="7">
         <v>0</v>
       </c>
@@ -25409,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="7">
         <v>0</v>
       </c>
@@ -25424,17 +25427,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="34" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>0</v>
       </c>
@@ -25447,7 +25450,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
         <v>7</v>
       </c>
@@ -25460,7 +25463,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>8</v>
       </c>
@@ -25474,14 +25477,14 @@
       <c r="G95" s="2"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="33"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="32"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
@@ -26002,10 +26005,10 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="34"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -26048,14 +26051,14 @@
     </row>
     <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="36"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="38"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129" s="14" t="s">
@@ -26576,10 +26579,10 @@
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="38"/>
+      <c r="C154" s="36"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -26625,14 +26628,14 @@
       <c r="G157" s="2"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="36"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="38"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
@@ -26880,10 +26883,10 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="37" t="s">
+      <c r="B181" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="38"/>
+      <c r="C181" s="36"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -26930,6 +26933,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B123:C123"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:G34"/>
@@ -26937,12 +26946,6 @@
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B123:C123"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
